--- a/examples/example_bypass.xlsx
+++ b/examples/example_bypass.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Tatra/UHP/Code/PYCBA/utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Tatra/UHP/Code/PYCBA/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA5DDBF-FB1C-5B43-8658-E6253E57785E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E7FCE-1132-E74B-8A29-39C133158467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9472B5AF-02AB-1245-A747-C6941C03678F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>variant_1</t>
+  </si>
+  <si>
+    <t>toll_sections</t>
   </si>
 </sst>
 </file>
@@ -508,18 +511,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C16B04-6DA5-CC43-8FB0-F785F7B86E2B}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -556,8 +560,11 @@
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -594,8 +601,11 @@
       <c r="L2" t="s">
         <v>30</v>
       </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -632,8 +642,11 @@
       <c r="L3" t="s">
         <v>31</v>
       </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -670,8 +683,11 @@
       <c r="L4" t="s">
         <v>30</v>
       </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -708,14 +724,17 @@
       <c r="L5" t="s">
         <v>30</v>
       </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
   </sheetData>

--- a/examples/example_bypass.xlsx
+++ b/examples/example_bypass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Tatra/UHP/Code/PYCBA/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E7FCE-1132-E74B-8A29-39C133158467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F9618-EE5B-764D-B8D3-57A236AA8016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9472B5AF-02AB-1245-A747-C6941C03678F}"/>
   </bookViews>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>lanes</t>
-  </si>
-  <si>
-    <t>label</t>
   </si>
   <si>
     <t>width</t>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>toll_sections</t>
+  </si>
+  <si>
+    <t>layout</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,43 +525,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -587,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2">
         <v>9.5</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -628,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>9.5</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -669,19 +669,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>9.5</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>11.5</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -758,7 +758,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1">
         <v>2020</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>300000</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>14000000</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1500000</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>300000</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>20000</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>150000</v>
@@ -941,10 +941,10 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1">
         <v>2020</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>9000</v>
@@ -1169,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>10000</v>
@@ -1296,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>8000</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>1000</v>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1000</v>
@@ -1971,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>1000</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -2352,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -2489,10 +2489,10 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1">
         <v>2020</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>9000</v>
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>10000</v>
@@ -2844,7 +2844,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>8000</v>
@@ -2971,7 +2971,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>1000</v>
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1000</v>
@@ -3741,7 +3741,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>1000</v>
@@ -3868,7 +3868,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -4118,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -4244,7 +4244,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -4370,7 +4370,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4507,10 +4507,10 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1">
         <v>2020</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>80</v>
@@ -4734,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -4860,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>80</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>80</v>
@@ -5112,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -5238,7 +5238,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>80</v>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>70</v>
@@ -5490,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -5616,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>70</v>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>70</v>
@@ -5868,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -5994,7 +5994,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>70</v>
@@ -6132,10 +6132,10 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1">
         <v>2020</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>80</v>
@@ -6360,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -6487,7 +6487,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>80</v>
@@ -6614,7 +6614,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>85</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>80</v>
@@ -6868,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -6995,7 +6995,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>80</v>
@@ -7122,7 +7122,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>85</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>70</v>
@@ -7376,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -7503,7 +7503,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>70</v>
@@ -7630,7 +7630,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>80</v>
@@ -7757,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>70</v>
@@ -7884,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -8011,7 +8011,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>70</v>
@@ -8138,7 +8138,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>85</v>

--- a/examples/example_bypass.xlsx
+++ b/examples/example_bypass.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="road_params" sheetId="1" state="visible" r:id="rId2"/>
@@ -256,11 +256,11 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.5"/>
@@ -444,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>0</v>
@@ -498,11 +498,11 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="11.67"/>
@@ -734,7 +734,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2293,7 +2293,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4320,7 +4320,7 @@
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5954,7 +5954,7 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
